--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_34.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD78A2-E4AD-4FA6-9EDF-75205FFAE251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072FBED6-D874-4B3F-A46A-35A14207AA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="878">
   <si>
     <t>Name</t>
   </si>
@@ -2579,6 +2579,81 @@
   </si>
   <si>
     <t>8277429379</t>
+  </si>
+  <si>
+    <t>Akshay S Dandekar</t>
+  </si>
+  <si>
+    <t>akshaydandekar243@gmail.com</t>
+  </si>
+  <si>
+    <t>7624917382</t>
+  </si>
+  <si>
+    <t>Hrushith AR</t>
+  </si>
+  <si>
+    <t>hrushithar27@gmail.com</t>
+  </si>
+  <si>
+    <t>9353151970</t>
+  </si>
+  <si>
+    <t>Bhuvan Kambad</t>
+  </si>
+  <si>
+    <t>22u1271@students.git.edu</t>
+  </si>
+  <si>
+    <t>8217004487</t>
+  </si>
+  <si>
+    <t>Raghu Nandan P</t>
+  </si>
+  <si>
+    <t>rr.raghu.692@gmail.com</t>
+  </si>
+  <si>
+    <t>9110412464</t>
+  </si>
+  <si>
+    <t>S E A COLLEGE OF ENGINEERING AND TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Riddi A Bagamar</t>
+  </si>
+  <si>
+    <t>bagamarriddi@gmail.com</t>
+  </si>
+  <si>
+    <t>9742764555</t>
+  </si>
+  <si>
+    <t>Sudha S Tammagol</t>
+  </si>
+  <si>
+    <t>sudhas.22.becs@acharya.ac.in</t>
+  </si>
+  <si>
+    <t>9008108268</t>
+  </si>
+  <si>
+    <t>G. Hari Kiran Rao</t>
+  </si>
+  <si>
+    <t>harikiranrao717@gmail.com</t>
+  </si>
+  <si>
+    <t>8309630869</t>
+  </si>
+  <si>
+    <t>sahana k nayakawadi</t>
+  </si>
+  <si>
+    <t>sahanakn.ece.rymec@gmail.com</t>
+  </si>
+  <si>
+    <t>7975662028</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +3016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066F25B4-A816-44FE-8A64-7F7A379A8CC4}">
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10376,6 +10451,282 @@
         <v>13</v>
       </c>
     </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>853</v>
+      </c>
+      <c r="B324" t="s">
+        <v>854</v>
+      </c>
+      <c r="C324" t="s">
+        <v>855</v>
+      </c>
+      <c r="D324" t="s">
+        <v>19</v>
+      </c>
+      <c r="E324" t="s">
+        <v>168</v>
+      </c>
+      <c r="F324" t="s">
+        <v>20</v>
+      </c>
+      <c r="G324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>856</v>
+      </c>
+      <c r="B325" t="s">
+        <v>857</v>
+      </c>
+      <c r="C325" t="s">
+        <v>858</v>
+      </c>
+      <c r="D325" t="s">
+        <v>389</v>
+      </c>
+      <c r="E325" t="s">
+        <v>18</v>
+      </c>
+      <c r="F325" t="s">
+        <v>31</v>
+      </c>
+      <c r="G325" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>859</v>
+      </c>
+      <c r="B326" t="s">
+        <v>860</v>
+      </c>
+      <c r="C326" t="s">
+        <v>861</v>
+      </c>
+      <c r="D326" t="s">
+        <v>19</v>
+      </c>
+      <c r="E326" t="s">
+        <v>25</v>
+      </c>
+      <c r="F326" t="s">
+        <v>20</v>
+      </c>
+      <c r="G326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>862</v>
+      </c>
+      <c r="B327" t="s">
+        <v>863</v>
+      </c>
+      <c r="C327" t="s">
+        <v>864</v>
+      </c>
+      <c r="D327" t="s">
+        <v>865</v>
+      </c>
+      <c r="E327" t="s">
+        <v>18</v>
+      </c>
+      <c r="F327" t="s">
+        <v>12</v>
+      </c>
+      <c r="G327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>866</v>
+      </c>
+      <c r="B328" t="s">
+        <v>867</v>
+      </c>
+      <c r="C328" t="s">
+        <v>868</v>
+      </c>
+      <c r="D328" t="s">
+        <v>46</v>
+      </c>
+      <c r="E328" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328" t="s">
+        <v>147</v>
+      </c>
+      <c r="G328" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>869</v>
+      </c>
+      <c r="B329" t="s">
+        <v>870</v>
+      </c>
+      <c r="C329" t="s">
+        <v>871</v>
+      </c>
+      <c r="D329" t="s">
+        <v>10</v>
+      </c>
+      <c r="E329" t="s">
+        <v>25</v>
+      </c>
+      <c r="F329" t="s">
+        <v>32</v>
+      </c>
+      <c r="G329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>866</v>
+      </c>
+      <c r="B330" t="s">
+        <v>867</v>
+      </c>
+      <c r="C330" t="s">
+        <v>868</v>
+      </c>
+      <c r="D330" t="s">
+        <v>46</v>
+      </c>
+      <c r="E330" t="s">
+        <v>25</v>
+      </c>
+      <c r="F330" t="s">
+        <v>32</v>
+      </c>
+      <c r="G330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>872</v>
+      </c>
+      <c r="B331" t="s">
+        <v>873</v>
+      </c>
+      <c r="C331" t="s">
+        <v>874</v>
+      </c>
+      <c r="D331" t="s">
+        <v>113</v>
+      </c>
+      <c r="E331" t="s">
+        <v>25</v>
+      </c>
+      <c r="F331" t="s">
+        <v>32</v>
+      </c>
+      <c r="G331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>875</v>
+      </c>
+      <c r="B332" t="s">
+        <v>876</v>
+      </c>
+      <c r="C332" t="s">
+        <v>877</v>
+      </c>
+      <c r="D332" t="s">
+        <v>163</v>
+      </c>
+      <c r="E332" t="s">
+        <v>18</v>
+      </c>
+      <c r="F332" t="s">
+        <v>64</v>
+      </c>
+      <c r="G332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>875</v>
+      </c>
+      <c r="B333" t="s">
+        <v>876</v>
+      </c>
+      <c r="C333" t="s">
+        <v>877</v>
+      </c>
+      <c r="D333" t="s">
+        <v>163</v>
+      </c>
+      <c r="E333" t="s">
+        <v>18</v>
+      </c>
+      <c r="F333" t="s">
+        <v>12</v>
+      </c>
+      <c r="G333" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>872</v>
+      </c>
+      <c r="B334" t="s">
+        <v>873</v>
+      </c>
+      <c r="C334" t="s">
+        <v>874</v>
+      </c>
+      <c r="D334" t="s">
+        <v>113</v>
+      </c>
+      <c r="E334" t="s">
+        <v>25</v>
+      </c>
+      <c r="F334" t="s">
+        <v>26</v>
+      </c>
+      <c r="G334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>820</v>
+      </c>
+      <c r="B335" t="s">
+        <v>821</v>
+      </c>
+      <c r="C335" t="s">
+        <v>822</v>
+      </c>
+      <c r="D335" t="s">
+        <v>823</v>
+      </c>
+      <c r="E335" t="s">
+        <v>25</v>
+      </c>
+      <c r="F335" t="s">
+        <v>32</v>
+      </c>
+      <c r="G335" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
